--- a/natmiOut/YoungD7/LR-pairs_lrc2p/App-Cd74.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/App-Cd74.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H2">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I2">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J2">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.1430223545417</v>
+        <v>141.0704656666667</v>
       </c>
       <c r="N2">
-        <v>10.1430223545417</v>
+        <v>423.211397</v>
       </c>
       <c r="O2">
-        <v>0.004884501871924219</v>
+        <v>0.05525296614535039</v>
       </c>
       <c r="P2">
-        <v>0.004884501871924219</v>
+        <v>0.05525296614535039</v>
       </c>
       <c r="Q2">
-        <v>1095.566218048197</v>
+        <v>15639.13215494248</v>
       </c>
       <c r="R2">
-        <v>1095.566218048197</v>
+        <v>140752.1893944824</v>
       </c>
       <c r="S2">
-        <v>0.001255801939716149</v>
+        <v>0.01386731237958099</v>
       </c>
       <c r="T2">
-        <v>0.001255801939716149</v>
+        <v>0.01386731237958099</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H3">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I3">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J3">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.28844877114016</v>
+        <v>3.309554666666667</v>
       </c>
       <c r="N3">
-        <v>3.28844877114016</v>
+        <v>9.928663999999999</v>
       </c>
       <c r="O3">
-        <v>0.001583594476765478</v>
+        <v>0.001296250856544298</v>
       </c>
       <c r="P3">
-        <v>0.001583594476765478</v>
+        <v>0.001296250856544298</v>
       </c>
       <c r="Q3">
-        <v>355.1913086172086</v>
+        <v>366.8986457328791</v>
       </c>
       <c r="R3">
-        <v>355.1913086172086</v>
+        <v>3302.087811595912</v>
       </c>
       <c r="S3">
-        <v>0.0004071410079862327</v>
+        <v>0.00032533123204123</v>
       </c>
       <c r="T3">
-        <v>0.0004071410079862327</v>
+        <v>0.00032533123204123</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H4">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I4">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J4">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2062.61463490881</v>
+        <v>2408.188354666666</v>
       </c>
       <c r="N4">
-        <v>2062.61463490881</v>
+        <v>7224.565063999999</v>
       </c>
       <c r="O4">
-        <v>0.9932784029366947</v>
+        <v>0.9432133721485603</v>
       </c>
       <c r="P4">
-        <v>0.9932784029366947</v>
+        <v>0.9432133721485604</v>
       </c>
       <c r="Q4">
-        <v>222786.7430308952</v>
+        <v>266972.790900233</v>
       </c>
       <c r="R4">
-        <v>222786.7430308952</v>
+        <v>2402755.118102097</v>
       </c>
       <c r="S4">
-        <v>0.2553711673765148</v>
+        <v>0.2367263766034531</v>
       </c>
       <c r="T4">
-        <v>0.2553711673765148</v>
+        <v>0.2367263766034531</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H5">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I5">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J5">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5264126174293851</v>
+        <v>0.6061513333333334</v>
       </c>
       <c r="N5">
-        <v>0.5264126174293851</v>
+        <v>1.818454</v>
       </c>
       <c r="O5">
-        <v>0.0002535007146156032</v>
+        <v>0.0002374108495449545</v>
       </c>
       <c r="P5">
-        <v>0.0002535007146156032</v>
+        <v>0.0002374108495449545</v>
       </c>
       <c r="Q5">
-        <v>56.85878037641594</v>
+        <v>67.19819604405356</v>
       </c>
       <c r="R5">
-        <v>56.85878037641594</v>
+        <v>604.783764396482</v>
       </c>
       <c r="S5">
-        <v>6.517485251946352E-05</v>
+        <v>5.958504389213925E-05</v>
       </c>
       <c r="T5">
-        <v>6.517485251946352E-05</v>
+        <v>5.958504389213924E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="H6">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="I6">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J6">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.1430223545417</v>
+        <v>141.0704656666667</v>
       </c>
       <c r="N6">
-        <v>10.1430223545417</v>
+        <v>423.211397</v>
       </c>
       <c r="O6">
-        <v>0.004884501871924219</v>
+        <v>0.05525296614535039</v>
       </c>
       <c r="P6">
-        <v>0.004884501871924219</v>
+        <v>0.05525296614535039</v>
       </c>
       <c r="Q6">
-        <v>1858.466869773772</v>
+        <v>26075.7190828058</v>
       </c>
       <c r="R6">
-        <v>1858.466869773772</v>
+        <v>234681.4717452522</v>
       </c>
       <c r="S6">
-        <v>0.002130283191935213</v>
+        <v>0.02312149667008163</v>
       </c>
       <c r="T6">
-        <v>0.002130283191935213</v>
+        <v>0.02312149667008163</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="H7">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="I7">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J7">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.28844877114016</v>
+        <v>3.309554666666667</v>
       </c>
       <c r="N7">
-        <v>3.28844877114016</v>
+        <v>9.928663999999999</v>
       </c>
       <c r="O7">
-        <v>0.001583594476765478</v>
+        <v>0.001296250856544298</v>
       </c>
       <c r="P7">
-        <v>0.001583594476765478</v>
+        <v>0.001296250856544298</v>
       </c>
       <c r="Q7">
-        <v>602.529786536037</v>
+        <v>611.7440484041761</v>
       </c>
       <c r="R7">
-        <v>602.529786536037</v>
+        <v>5505.696435637584</v>
       </c>
       <c r="S7">
-        <v>0.0006906548068055025</v>
+        <v>0.0005424371206486183</v>
       </c>
       <c r="T7">
-        <v>0.0006906548068055025</v>
+        <v>0.0005424371206486183</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="H8">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="I8">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J8">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2062.61463490881</v>
+        <v>2408.188354666666</v>
       </c>
       <c r="N8">
-        <v>2062.61463490881</v>
+        <v>7224.565063999999</v>
       </c>
       <c r="O8">
-        <v>0.9932784029366947</v>
+        <v>0.9432133721485603</v>
       </c>
       <c r="P8">
-        <v>0.9932784029366947</v>
+        <v>0.9432133721485604</v>
       </c>
       <c r="Q8">
-        <v>377924.9251454254</v>
+        <v>445133.8750320017</v>
       </c>
       <c r="R8">
-        <v>377924.9251454254</v>
+        <v>4006204.875288016</v>
       </c>
       <c r="S8">
-        <v>0.4331996060541424</v>
+        <v>0.3947028795873</v>
       </c>
       <c r="T8">
-        <v>0.4331996060541424</v>
+        <v>0.3947028795873</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="H9">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="I9">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J9">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5264126174293851</v>
+        <v>0.6061513333333334</v>
       </c>
       <c r="N9">
-        <v>0.5264126174293851</v>
+        <v>1.818454</v>
       </c>
       <c r="O9">
-        <v>0.0002535007146156032</v>
+        <v>0.0002374108495449545</v>
       </c>
       <c r="P9">
-        <v>0.0002535007146156032</v>
+        <v>0.0002374108495449545</v>
       </c>
       <c r="Q9">
-        <v>96.45255379776907</v>
+        <v>112.042104738036</v>
       </c>
       <c r="R9">
-        <v>96.45255379776907</v>
+        <v>1008.378942642324</v>
       </c>
       <c r="S9">
-        <v>0.0001105595464285172</v>
+        <v>9.934840697519451E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001105595464285172</v>
+        <v>9.93484069751945E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H10">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="I10">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J10">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.1430223545417</v>
+        <v>141.0704656666667</v>
       </c>
       <c r="N10">
-        <v>10.1430223545417</v>
+        <v>423.211397</v>
       </c>
       <c r="O10">
-        <v>0.004884501871924219</v>
+        <v>0.05525296614535039</v>
       </c>
       <c r="P10">
-        <v>0.004884501871924219</v>
+        <v>0.05525296614535039</v>
       </c>
       <c r="Q10">
-        <v>813.8816256585567</v>
+        <v>13434.38825922136</v>
       </c>
       <c r="R10">
-        <v>813.8816256585567</v>
+        <v>120909.4943329922</v>
       </c>
       <c r="S10">
-        <v>0.0009329186199463338</v>
+        <v>0.01191235272990012</v>
       </c>
       <c r="T10">
-        <v>0.0009329186199463338</v>
+        <v>0.01191235272990012</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H11">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="I11">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J11">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.28844877114016</v>
+        <v>3.309554666666667</v>
       </c>
       <c r="N11">
-        <v>3.28844877114016</v>
+        <v>9.928663999999999</v>
       </c>
       <c r="O11">
-        <v>0.001583594476765478</v>
+        <v>0.001296250856544298</v>
       </c>
       <c r="P11">
-        <v>0.001583594476765478</v>
+        <v>0.001296250856544298</v>
       </c>
       <c r="Q11">
-        <v>263.8669164080105</v>
+        <v>315.1747046910311</v>
       </c>
       <c r="R11">
-        <v>263.8669164080105</v>
+        <v>2836.57234221928</v>
       </c>
       <c r="S11">
-        <v>0.0003024596596657026</v>
+        <v>0.0002794673029674128</v>
       </c>
       <c r="T11">
-        <v>0.0003024596596657026</v>
+        <v>0.0002794673029674128</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H12">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="I12">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J12">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2062.61463490881</v>
+        <v>2408.188354666666</v>
       </c>
       <c r="N12">
-        <v>2062.61463490881</v>
+        <v>7224.565063999999</v>
       </c>
       <c r="O12">
-        <v>0.9932784029366947</v>
+        <v>0.9432133721485603</v>
       </c>
       <c r="P12">
-        <v>0.9932784029366947</v>
+        <v>0.9432133721485604</v>
       </c>
       <c r="Q12">
-        <v>165505.3191729423</v>
+        <v>229336.0073991164</v>
       </c>
       <c r="R12">
-        <v>165505.3191729423</v>
+        <v>2064024.066592047</v>
       </c>
       <c r="S12">
-        <v>0.1897118562317497</v>
+        <v>0.2033536147006962</v>
       </c>
       <c r="T12">
-        <v>0.1897118562317497</v>
+        <v>0.2033536147006963</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H13">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="I13">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J13">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5264126174293851</v>
+        <v>0.6061513333333334</v>
       </c>
       <c r="N13">
-        <v>0.5264126174293851</v>
+        <v>1.818454</v>
       </c>
       <c r="O13">
-        <v>0.0002535007146156032</v>
+        <v>0.0002374108495449545</v>
       </c>
       <c r="P13">
-        <v>0.0002535007146156032</v>
+        <v>0.0002374108495449545</v>
       </c>
       <c r="Q13">
-        <v>42.2396344861415</v>
+        <v>57.72485627917556</v>
       </c>
       <c r="R13">
-        <v>42.2396344861415</v>
+        <v>519.52370651258</v>
       </c>
       <c r="S13">
-        <v>4.84175342820438E-05</v>
+        <v>5.118497664442101E-05</v>
       </c>
       <c r="T13">
-        <v>4.84175342820438E-05</v>
+        <v>5.118497664442101E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="H14">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="I14">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="J14">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.1430223545417</v>
+        <v>141.0704656666667</v>
       </c>
       <c r="N14">
-        <v>10.1430223545417</v>
+        <v>423.211397</v>
       </c>
       <c r="O14">
-        <v>0.004884501871924219</v>
+        <v>0.05525296614535039</v>
       </c>
       <c r="P14">
-        <v>0.004884501871924219</v>
+        <v>0.05525296614535039</v>
       </c>
       <c r="Q14">
-        <v>493.3426342210686</v>
+        <v>7163.371328186326</v>
       </c>
       <c r="R14">
-        <v>493.3426342210686</v>
+        <v>64470.34195367694</v>
       </c>
       <c r="S14">
-        <v>0.0005654981203265225</v>
+        <v>0.006351804365787654</v>
       </c>
       <c r="T14">
-        <v>0.0005654981203265225</v>
+        <v>0.006351804365787655</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="H15">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="I15">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="J15">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.28844877114016</v>
+        <v>3.309554666666667</v>
       </c>
       <c r="N15">
-        <v>3.28844877114016</v>
+        <v>9.928663999999999</v>
       </c>
       <c r="O15">
-        <v>0.001583594476765478</v>
+        <v>0.001296250856544298</v>
       </c>
       <c r="P15">
-        <v>0.001583594476765478</v>
+        <v>0.001296250856544298</v>
       </c>
       <c r="Q15">
-        <v>159.9456180365113</v>
+        <v>168.0548008134</v>
       </c>
       <c r="R15">
-        <v>159.9456180365113</v>
+        <v>1512.4932073206</v>
       </c>
       <c r="S15">
-        <v>0.0001833390023080401</v>
+        <v>0.0001490152008870373</v>
       </c>
       <c r="T15">
-        <v>0.0001833390023080401</v>
+        <v>0.0001490152008870373</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="H16">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="I16">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="J16">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2062.61463490881</v>
+        <v>2408.188354666666</v>
       </c>
       <c r="N16">
-        <v>2062.61463490881</v>
+        <v>7224.565063999999</v>
       </c>
       <c r="O16">
-        <v>0.9932784029366947</v>
+        <v>0.9432133721485603</v>
       </c>
       <c r="P16">
-        <v>0.9932784029366947</v>
+        <v>0.9432133721485604</v>
       </c>
       <c r="Q16">
-        <v>100322.734368539</v>
+        <v>122284.6138004034</v>
       </c>
       <c r="R16">
-        <v>100322.734368539</v>
+        <v>1100561.524203631</v>
       </c>
       <c r="S16">
-        <v>0.1149957732742876</v>
+        <v>0.1084305012571109</v>
       </c>
       <c r="T16">
-        <v>0.1149957732742876</v>
+        <v>0.1084305012571109</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="H17">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="I17">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="J17">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5264126174293851</v>
+        <v>0.6061513333333334</v>
       </c>
       <c r="N17">
-        <v>0.5264126174293851</v>
+        <v>1.818454</v>
       </c>
       <c r="O17">
-        <v>0.0002535007146156032</v>
+        <v>0.0002374108495449545</v>
       </c>
       <c r="P17">
-        <v>0.0002535007146156032</v>
+        <v>0.0002374108495449545</v>
       </c>
       <c r="Q17">
-        <v>25.60398452178653</v>
+        <v>30.77956155615</v>
       </c>
       <c r="R17">
-        <v>25.60398452178653</v>
+        <v>277.01605400535</v>
       </c>
       <c r="S17">
-        <v>2.93487813855787E-05</v>
+        <v>2.729242203319969E-05</v>
       </c>
       <c r="T17">
-        <v>2.93487813855787E-05</v>
+        <v>2.729242203319969E-05</v>
       </c>
     </row>
   </sheetData>
